--- a/graph_generation/results/hermes_llama2/level_1/k_0.xlsx
+++ b/graph_generation/results/hermes_llama2/level_1/k_0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="42">
   <si>
     <t>prompt</t>
   </si>
@@ -31,6 +31,7 @@
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 10 nodes labelled A to J. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
 What is the shortest path from node A to node J? Return the sequence of nodes in response.
    A B C D E F G H I J
  A 0 1 0 0 0 0 0 0 0 0
@@ -54,52 +55,16 @@
 2. Select the node with the smallest distance (A) and mark it as visited.
 3. Update the distances of its neighbors (B and C) by adding the distance to the current node (A) and the weight of the edge connecting them. If the new distance is smaller than the current distance, update the distance.
 4. Repeat steps 2-3 until all nodes are visited or the target node (J) is visited.
-Following the algorithm:
-1. Unvisited nodes: {A, B, C, D, E, F, G, H, I, J}
-   Distances: A=0, B=∞, C=∞, D=∞, E=∞, F=∞, G=∞, H=∞, I=∞, J=∞
-2. Select node A (smallest distance), mark as visited.
-   Unvisited nodes: {B, C, D, E, F, G, H, I, J}
-3. Update distances:
-   Distances: A=0, B=1, C=1, D=2, E=2, F=2, G=2, H=2, I=2, J=∞
-4. Select node C (smallest distance), mark as visited.
-   Unvisited nodes: {B, D, E, F, G, H, I, J}
-5. Update distances:
-   Distances: A=0, B=1, C=1, D=2, E=2, F=2, G=2, H=2, I=2, J=∞
-6. Select node B (smallest distance), mark as visited.
-   Unvisited nodes: {D, E, F, G, H, I, J}
-7. Update distances:
-   Distances: A=0, B=1, C=1, D=2, E=2, F=2, G=2, H=2,</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node A to node J, we can use Dijkstra's algorithm. Here's the step-by-step process:
-1. Create a set of unvisited nodes and initialize the distance to the starting node (A) to 0 and the distance to all other nodes to infinity.
-2. Select the node with the smallest distance (A) and mark it as visited.
-3. Update the distances of its neighbors (B and C) by adding the distance to the current node (A) and the weight of the edge connecting them. If the new distance is smaller than the current distance, update the distance.
-4. Repeat steps 2-3 until all nodes are visited or the target node (J) is visited.
-Following the algorithm:
-1. Unvisited nodes: {A, B, C, D, E, F, G, H, I, J}
-   Distances: A=0, B=∞, C=∞, D=∞, E=∞, F=∞, G=∞, H=∞, I=∞, J=∞
-2. Select node A (smallest distance), mark it visited.
-   Unvisited nodes: {B, C, D, E, F, G, H, I, J}
-3. Update distances:
-   Distances: A=0, B=1, C=1, D=2, E=2, F=2, G=2, H=2, I=2, J=∞
-4. Select node C (smallest distance), mark it visited.
-   Unvisited nodes: {B, D, E, F, G, H, I, J}
-5. Update distances:
-   Distances: A=0, B=1, C=1, D=2, E=2, F=2, G=2, H=2, I=2, J=∞
-6. Select node B (smallest distance), mark it visited.
-   Unvisited nodes: {D, E, F, G, H, I, J}
-7. Update distances:
-   Distances: A=0, B=1, C=1, D=2, E=2, F=2, G=2, H=2,</t>
+Following these steps, we get the following sequence of nodes:
+A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J
+So, the shortest path from node A to node J is A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J.</t>
   </si>
   <si>
     <t>Correct</t>
   </si>
   <si>
-    <t>Wrong</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
 What is the shortest path from node A to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
  A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
@@ -128,431 +93,422 @@
     <t>A -&gt; B -&gt; C -&gt; D -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T</t>
   </si>
   <si>
-    <t>To find the shortest path from node A to node T, we can use Dijkstra's algorithm. Here's the step-by-step process:
-1. Create a set of unvisited nodes and initialize the distance to the starting node (A) to 0 and the distance to all other nodes to infinity.
-2. Select the node with the smallest distance (A) and mark it as visited.
-3. Update the distances of its neighbors (B and C) if the new distance is smaller than their current distance.
-4. Repeat steps 2-3 until all nodes are visited or the target node (T) is visited.
-Following this process, we get the following sequence of nodes:
-A -&gt; B -&gt; E -&gt; T
-The shortest path from node A to node T is A -&gt; B -&gt; E -&gt; T, and the sequence of nodes is [A, B, E, T].</t>
+    <t>To find the shortest path from node A to node T, we can use Dijkstra's algorithm. Here's the sequence of nodes in the shortest path from A to T:
+A -&gt; C -&gt; E -&gt; G -&gt; I -&gt; K -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T</t>
+  </si>
+  <si>
+    <t>Wrong</t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-What is the shortest path from node E to node Q? Return the sequence of nodes in response.
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+What is the shortest path from node Q to node F? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
- B 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1
- E 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0
- G 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
- J 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
- L 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- M 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- R 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- S 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- T 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ A 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ B 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0
+ D 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0
+ E 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ F 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0
+ I 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ J 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ L 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ M 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0
+ P 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ Q 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ S 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0
     </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-What is the shortest path from node M to node O? Return the sequence of nodes in response.
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+What is the shortest path from node L to node A? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0
- D 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0
- E 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0
- G 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- H 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0
+ F 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ H 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
+ J 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ M 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1
+ P 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0
+ R 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ S 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0
+ T 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+What is the shortest path from node H to node N? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T
+ A 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1
+ B 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0
+ D 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
+ G 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ J 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ K 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
  L 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- N 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- P 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- Q 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0
- R 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- S 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0
+ M 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ O 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ P 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0
+ Q 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ R 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ T 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
     </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-What is the shortest path from node C to node E? Return the sequence of nodes in response.
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+What is the shortest path from node S to node E? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1
- E 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0
+ A 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
+ D 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0
+ G 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
+ I 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ J 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ L 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
+ M 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ N 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0
+ Q 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ R 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+What is the shortest path from node Q to node I? Return the sequence of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T
+ A 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ D 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0
+ F 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0
  H 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0
- J 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- K 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- L 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
- N 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- P 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- Q 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0
- T 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ J 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
+ K 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ M 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ O 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ P 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ R 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0
+ T 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0
     </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-What is the shortest path from node I to node A? Return the sequence of nodes in response.
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+What is the shortest path from node L to node A? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- C 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- D 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
- F 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0
- I 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- L 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
- N 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0
- P 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- Q 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1
- T 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ A 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0
+ D 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0
+ E 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ G 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ H 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
+ I 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ K 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ M 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0
+ O 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
+ P 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ Q 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ R 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ T 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0
     </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-What is the shortest path from node K to node F? Return the sequence of nodes in response.
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+What is the shortest path from node J to node M? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0
- B 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
- C 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- D 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1
- H 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1
- J 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0
- M 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0
- N 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
- Q 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- R 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
+ A 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ B 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0
+ D 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ E 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
+ F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
+ H 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0
+ J 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1
+ M 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ O 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0
+ P 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ Q 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0
+ T 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-What is the shortest path from node I to node T? Return the sequence of nodes in response.
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+What is the shortest path from node F to node T? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0
- B 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0
- C 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0
- G 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0
+ C 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0
+ D 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
+ F 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0
  H 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- J 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0
- L 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0
- M 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- Q 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- R 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0
- S 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ I 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
+ K 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0
+ L 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0
+ M 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ N 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ O 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0
+ Q 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0
+ R 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ S 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-What is the shortest path from node C to node G? Return the sequence of nodes in response.
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+What is the shortest path from node R to node H? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
- B 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0
- C 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
- H 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0
- J 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- K 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0
- M 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1
- O 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- P 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
- R 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- S 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- T 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
+ A 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0
+ B 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0
+ C 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0
+ D 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0
+ E 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ H 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1
+ J 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1
+ K 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0
+ M 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ N 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ O 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0
+ P 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ Q 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ R 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0
     </t>
   </si>
   <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-What is the shortest path from node M to node O? Return the sequence of nodes in response.
+ Example response format: A -&gt; B -&gt; C -&gt; D and so on.
+What is the shortest path from node B to node R? Return the sequence of nodes in response.
    A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0
- B 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1
- C 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0
- E 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1
- G 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- I 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- J 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0
- L 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- O 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0
- Q 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0
- R 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0
- T 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ A 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0
+ B 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0
+ D 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0
+ G 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1
+ J 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
+ K 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
+ L 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0
+ N 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1
+ Q 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0
     </t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-What is the shortest path from node D to node G? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T
- A 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0
- B 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1
- G 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- H 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0
- I 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0
- J 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0
- M 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- N 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- O 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0
- Q 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- R 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0
- T 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a unweighted undirected graph containing 20 nodes labelled A to T. The value corresponding to each row M and column N represents whether there is a connection between the two nodes, where 0 means no connection.   
-What is the shortest path from node C to node E? Return the sequence of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T
- A 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- B 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- C 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0
- D 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0
- E 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- F 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0
- G 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0
- H 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0
- J 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0
- K 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0
- L 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1
- O 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- P 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0
- Q 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0
- R 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1
- S 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0
-    </t>
-  </si>
-  <si>
-    <t>E -&gt; B -&gt; R -&gt; T -&gt; D -&gt; J -&gt; A -&gt; M -&gt; H -&gt; I -&gt; L -&gt; G -&gt; N -&gt; C -&gt; O -&gt; F -&gt; S -&gt; K -&gt; P -&gt; Q</t>
-  </si>
-  <si>
-    <t>M -&gt; R -&gt; D -&gt; I -&gt; C -&gt; S -&gt; G -&gt; E -&gt; N -&gt; J -&gt; A -&gt; H -&gt; B -&gt; L -&gt; Q -&gt; K -&gt; F -&gt; P -&gt; T -&gt; O</t>
-  </si>
-  <si>
-    <t>C -&gt; P -&gt; T -&gt; D -&gt; Q -&gt; M -&gt; J -&gt; F -&gt; B -&gt; K -&gt; S -&gt; I -&gt; N -&gt; O -&gt; L -&gt; G -&gt; R -&gt; H -&gt; A -&gt; E</t>
-  </si>
-  <si>
-    <t>I -&gt; J -&gt; H -&gt; R -&gt; K -&gt; F -&gt; G -&gt; L -&gt; O -&gt; N -&gt; E -&gt; Q -&gt; B -&gt; C -&gt; T -&gt; S -&gt; M -&gt; P -&gt; D -&gt; A</t>
-  </si>
-  <si>
-    <t>K -&gt; S -&gt; G -&gt; T -&gt; I -&gt; L -&gt; R -&gt; C -&gt; D -&gt; E -&gt; B -&gt; J -&gt; P -&gt; Q -&gt; A -&gt; N -&gt; H -&gt; M -&gt; O -&gt; F</t>
-  </si>
-  <si>
-    <t>I -&gt; M -&gt; E -&gt; N -&gt; C -&gt; H -&gt; K -&gt; S -&gt; D -&gt; P -&gt; R -&gt; L -&gt; J -&gt; F -&gt; O -&gt; B -&gt; G -&gt; A -&gt; Q -&gt; T</t>
-  </si>
-  <si>
-    <t>C -&gt; H -&gt; D -&gt; E -&gt; T -&gt; N -&gt; Q -&gt; J -&gt; A -&gt; S -&gt; F -&gt; P -&gt; I -&gt; M -&gt; O -&gt; B -&gt; K -&gt; L -&gt; R -&gt; G</t>
-  </si>
-  <si>
-    <t>M -&gt; F -&gt; T -&gt; B -&gt; J -&gt; K -&gt; S -&gt; N -&gt; A -&gt; R -&gt; P -&gt; Q -&gt; I -&gt; C -&gt; G -&gt; E -&gt; L -&gt; H -&gt; D -&gt; O</t>
-  </si>
-  <si>
-    <t>D -&gt; K -&gt; H -&gt; S -&gt; P -&gt; I -&gt; J -&gt; B -&gt; R -&gt; E -&gt; Q -&gt; A -&gt; M -&gt; L -&gt; N -&gt; C -&gt; O -&gt; F -&gt; T -&gt; G</t>
-  </si>
-  <si>
-    <t>C -&gt; M -&gt; N -&gt; T -&gt; R -&gt; D -&gt; K -&gt; Q -&gt; F -&gt; O -&gt; I -&gt; G -&gt; J -&gt; S -&gt; P -&gt; B -&gt; A -&gt; H -&gt; L -&gt; E</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node E to node Q, we can use Dijkstra's algorithm. Here's the step-by-step process:
-1. Create a set of unvisited nodes and initialize the distance to the starting node (E) to 0 and the distance to all other nodes to infinity.
-2. Select the node with the smallest distance (E) and mark it as visited.
-3. Update the distances to its neighbors (F, I, and J) by adding the distance to the current node (E) and the weight of the edge connecting them. If the new distance is smaller than the current distance, update the distance.
-4. Repeat steps 2 and 3 until all nodes are visited or the target node (Q) is visited.
+    <t>Q -&gt; I -&gt; C -&gt; P -&gt; T -&gt; L -&gt; D -&gt; K -&gt; N -&gt; O -&gt; R -&gt; E -&gt; B -&gt; A -&gt; S -&gt; H -&gt; M -&gt; G -&gt; J -&gt; F</t>
+  </si>
+  <si>
+    <t>L -&gt; I -&gt; T -&gt; O -&gt; Q -&gt; R -&gt; E -&gt; K -&gt; J -&gt; B -&gt; M -&gt; C -&gt; H -&gt; D -&gt; P -&gt; S -&gt; G -&gt; F -&gt; N -&gt; A</t>
+  </si>
+  <si>
+    <t>H -&gt; M -&gt; E -&gt; O -&gt; T -&gt; A -&gt; J -&gt; S -&gt; C -&gt; R -&gt; B -&gt; L -&gt; Q -&gt; F -&gt; K -&gt; I -&gt; D -&gt; G -&gt; P -&gt; N</t>
+  </si>
+  <si>
+    <t>S -&gt; T -&gt; Q -&gt; C -&gt; N -&gt; F -&gt; K -&gt; O -&gt; J -&gt; D -&gt; I -&gt; P -&gt; R -&gt; B -&gt; A -&gt; M -&gt; L -&gt; H -&gt; G -&gt; E</t>
+  </si>
+  <si>
+    <t>Q -&gt; S -&gt; L -&gt; E -&gt; O -&gt; N -&gt; M -&gt; R -&gt; H -&gt; A -&gt; F -&gt; D -&gt; B -&gt; C -&gt; K -&gt; J -&gt; G -&gt; P -&gt; T -&gt; I</t>
+  </si>
+  <si>
+    <t>L -&gt; J -&gt; C -&gt; R -&gt; S -&gt; P -&gt; D -&gt; M -&gt; B -&gt; I -&gt; H -&gt; O -&gt; N -&gt; K -&gt; E -&gt; F -&gt; Q -&gt; T -&gt; G -&gt; A</t>
+  </si>
+  <si>
+    <t>J -&gt; H -&gt; B -&gt; D -&gt; T -&gt; L -&gt; G -&gt; S -&gt; O -&gt; I -&gt; K -&gt; E -&gt; Q -&gt; F -&gt; P -&gt; N -&gt; C -&gt; R -&gt; A -&gt; M</t>
+  </si>
+  <si>
+    <t>F -&gt; I -&gt; D -&gt; A -&gt; L -&gt; O -&gt; P -&gt; R -&gt; B -&gt; M -&gt; Q -&gt; G -&gt; K -&gt; H -&gt; C -&gt; S -&gt; N -&gt; E -&gt; J -&gt; T</t>
+  </si>
+  <si>
+    <t>R -&gt; A -&gt; P -&gt; L -&gt; M -&gt; F -&gt; E -&gt; S -&gt; B -&gt; Q -&gt; G -&gt; C -&gt; O -&gt; J -&gt; T -&gt; I -&gt; K -&gt; N -&gt; D -&gt; H</t>
+  </si>
+  <si>
+    <t>B -&gt; D -&gt; G -&gt; A -&gt; K -&gt; Q -&gt; C -&gt; J -&gt; H -&gt; N -&gt; I -&gt; T -&gt; P -&gt; O -&gt; S -&gt; M -&gt; L -&gt; E -&gt; F -&gt; R</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node Q to node F, we can use Dijkstra's algorithm. Here's the step-by-step process:
+1. Create a set of unvisited nodes and initialize the distance to the starting node (Q) to 0 and the distance to all other nodes to infinity.
+2. Select the node with the smallest distance (Q) and mark it as visited.
+3. Update the distances of its neighbors (F, I, and R).
+4. Repeat steps 2-3 until all nodes are visited or the target node (F) is visited.
 Following these steps, we get the following sequence of nodes:
-E -&gt; F -&gt; I -&gt; J -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q
-So, the shortest path from node E to node Q is E -&gt; F -&gt; I -&gt; J -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q.</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node M to node O, we can use Dijkstra's algorithm. Here's the step-by-step process:
-1. Create a set of unvisited nodes and initialize the distance to the starting node (M) to 0 and the distance to all other nodes to infinity.
-2. Select the node with the smallest distance (M) and mark it as visited.
-3. Update the distances to its neighbors (I, K, and T).
-4. Repeat steps 2-3 until all nodes are visited or the target node (O) is visited.
-Following this process, we get the following sequence of nodes:
-M -&gt; I -&gt; K -&gt; T -&gt; O
-So, the shortest path from node M to node O is M -&gt; I -&gt; K -&gt; T -&gt; O.</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node C to node E, we can use Dijkstra's algorithm. Here's the step-by-step process:
-1. Create a set of unvisited nodes and initialize the distance to the starting node (C) to 0 and the distance to all other nodes to infinity.
-2. Select the node with the smallest distance (C) and mark it as visited.
-3. Update the distances to its neighbors (D, I, and J) by adding the distance to the current node (C) and the weight of the edge connecting them. If the new distance is smaller than the current distance, update the distance.
-4. Repeat steps 2 and 3 until all nodes are visited or the target node (E) is visited.
-Following these steps, we get the following sequence of nodes:
-C -&gt; D (distance 1)
-D -&gt; E (distance 2)
-So, the shortest path from node C to node E is C -&gt; D -&gt; E.</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node I to node A, we can use Dijkstra's algorithm. Here's the step-by-step process:
-1. Create a set of unvisited nodes and initialize the distance to the starting node (I) to 0 and the distance to all other nodes to infinity.
-2. Select the node with the smallest distance (I) and mark it as visited.
-3. Update the distances of its neighbors (F, H, and J) by adding the distance to the current node (I) and selecting the smallest distance among the neighbors.
+Q -&gt; I -&gt; R -&gt; F
+So, the shortest path from node Q to node F is Q -&gt; I -&gt; R -&gt; F.</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node L to node A, we can use Dijkstra's algorithm. Here's the step-by-step process:
+1. Create a set of unvisited nodes and initialize the distance to the starting node (L) to 0 and the distance to all other nodes to infinity.
+2. Select the node with the smallest distance (L) and mark it as visited.
+3. Update the distances of its neighbors (A, I, and K) by adding the distance to the current node (L) and selecting the smallest distance among the neighbors.
 4. Repeat steps 2 and 3 until all nodes are visited or the target node (A) is visited.
 Following these steps, we get the following sequence of nodes:
-I -&gt; F -&gt; E -&gt; A
-So, the shortest path from node I to node A is I -&gt; F -&gt; E -&gt; A.</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node K to node F, we can use Dijkstra's algorithm. Here's the step-by-step process:
-1. Create a set of unvisited nodes and initialize the distance to the starting node (K) to 0 and the distance to all other nodes to infinity.
-2. Select the node with the smallest distance (K) and mark it as visited.
-3. Update the distances to its neighbors (F, J, and I). The new distance to F is 1, so we add F to the unvisited set.
-4. Select the next unvisited node with the smallest distance (F) and mark it as visited.
-5. Update the distances to its neighbors (K, J, and I). The new distance to K is 2, so we update the distance in the adjacency matrix.
-6. Select the next unvisited node with the smallest distance (J) and mark it as visited.
-7. Update the distances to its neighbors (F, I, and K). The new distance to F is 2, so we update the distance in the adjacency matrix.
-8. Select the next unvisited node with the smallest distance (I) and mark it as visited.
-9. Update the distances to its neighbors (F, J, and K). The new distance to F is 3, so we update the distance in the adjacency matrix.
-10. All nodes have been visited, and the shortest path from node K to node F is found.
-The shortest path from node K to node F is K -&gt; F with a distance of 1.</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node I to node T, we can use Dijkstra's algorithm. Here's the step-by-step process:
-1. Create a set of unvisited nodes and initialize the distance to the starting node (I) to 0 and the distance to all other nodes to infinity.
-2. Select the node with the smallest distance (I) and mark it as visited.
-3. Update the distances of its neighbors (F, J, and T) by adding the distance to the current node (I) and selecting the smallest distance among them.
+L -&gt; I -&gt; K -&gt; A
+So, the shortest path from node L to node A is L -&gt; I -&gt; K -&gt; A.</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node H to node N, we can use Dijkstra's algorithm. Here's the step-by-step process:
+1. Create a set of unvisited nodes and initialize the distance to the starting node (H) to 0 and the distance to all other nodes to infinity.
+2. Select the node with the smallest distance (H) and mark it as visited.
+3. Update the distances of its neighbors (G, I, and J).
+4. Repeat steps 2-3 until all nodes are visited or the target node (N) is visited.
+Following these steps, we get the following sequence of nodes:
+H -&gt; G -&gt; I -&gt; J -&gt; L -&gt; M -&gt; N
+So, the shortest path from node H to node N is H -&gt; G -&gt; I -&gt; J -&gt; L -&gt; M -&gt; N.</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node S to node E, we can use Dijkstra's algorithm. Here's the step-by-step process:
+1. Create a set of unvisited nodes and initialize the distance to the starting node (S) to 0 and the distance to all other nodes to infinity.
+2. Select the node with the smallest distance (S) and mark it as visited.
+3. Update the distances of its neighbors (if the new distance is smaller than the current distance, update it).
+4. Repeat steps 2 and 3 until all nodes are visited or the target node (E) is visited.
+Following this algorithm, we get the following sequence of nodes:
+S -&gt; A -&gt; B -&gt; E
+So, the shortest path from node S to node E is S -&gt; A -&gt; B -&gt; E.</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node Q to node I, we can use Dijkstra's algorithm. Here's the step-by-step process:
+1. Create a set of unvisited nodes and initialize the distance to the starting node (Q) to 0 and the distance to all other nodes to infinity.
+2. Select the node with the smallest distance (Q) and mark it as visited.
+3. Update the distances of its neighbors (all nodes except I, since it's the destination node).
+4. Repeat steps 2 and 3 until all nodes are visited or the destination node is visited.
+Following these steps, we get the following sequence of nodes:
+Q -&gt; S -&gt; T -&gt; I
+So, the shortest path from node Q to node I is Q -&gt; S -&gt; T -&gt; I.</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node L to node A, we can use Dijkstra's algorithm. Here's the step-by-step process:
+1. Create a set of unvisited nodes and initialize the distance to the starting node (L) to 0 and the distance to all other nodes to infinity.
+2. Select the node with the smallest distance (L) and mark it as visited.
+3. Update the distances of its neighbors (if the new distance is smaller than the current distance, update it).
+4. Repeat steps 2 and 3 until all nodes are visited or the target node (A) is visited.
+Following this process, we get the following sequence of nodes:
+L -&gt; I -&gt; G -&gt; A
+So, the shortest path from node L to node A is L -&gt; I -&gt; G -&gt; A.</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node J to node M, we can use Dijkstra's algorithm. Here's the step-by-step process:
+1. Create a set of unvisited nodes and initialize the distance to the starting node (J) to 0 and the distance to all other nodes to infinity.
+2. Select the node with the smallest distance (J) and mark it as visited.
+3. Update the distances of its neighbors (I, K, and T).
+4. Repeat steps 2-3 until all nodes are visited or the target node (M) is visited.
+Following these steps, we get the following sequence of nodes:
+J -&gt; I -&gt; K -&gt; T -&gt; M
+So, the shortest path from node J to node M is J -&gt; I -&gt; K -&gt; T -&gt; M.</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node F to node T, we can use Dijkstra's algorithm. Here's the step-by-step process:
+1. Create a set of unvisited nodes and initialize the distance to the starting node (F) to 0 and the distance to all other nodes to infinity.
+2. Select the node with the smallest distance (F) and mark it as visited.
+3. Update the distances of its neighbors (E, I, and J) by adding the distance to the current node (F) and the weight of the edge connecting them. If the new distance is smaller than the current distance, update the distance.
 4. Repeat steps 2 and 3 until all nodes are visited or the target node (T) is visited.
-Following this process, we get the following sequence of nodes:
-I -&gt; F -&gt; J -&gt; T
-So, the shortest path from node I to node T is I -&gt; F -&gt; J -&gt; T.</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node C to node G, we can use Dijkstra's algorithm. Here's the step-by-step process:
-1. Create a set of unvisited nodes and initialize the distance to the starting node (C) to 0 and the distance to all other nodes to infinity.
-2. Select the node with the smallest distance (C) and mark it as visited.
-3. Update the distances to its neighbors (D, E, and I). The new distances are 1, 2, and 3.
-4. Select the node with the smallest distance among the unvisited nodes (D) and mark it as visited.
-5. Update the distances to its neighbors (E and G). The new distances are 3 and infinity.
-6. Select the node with the smallest distance among the unvisited nodes (E) and mark it as visited.
-7. Update the distances to its neighbors (F and G). The new distances are 4 and 5.
-8. Select the node with the smallest distance among the unvisited nodes (G) and mark it as visited.
-9. Since we have reached the destination node (G), we can stop the algorithm.
-The shortest path from node C to node G is C -&gt; D -&gt; E -&gt; G, and the sequence of nodes is C, D, E, and G.</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node M to node O, we can use Dijkstra's algorithm. Here's the step-by-step process:
-1. Create a set of unvisited nodes and initialize the distance to the starting node (M) to 0 and the distance to all other nodes to infinity.
-2. Select the node with the smallest distance (M) and mark it as visited.
-3. Update the distances to its neighbors (A, I, and T).
-4. Repeat steps 2-3 until all nodes are visited or the target node (O) is visited.
 Following these steps, we get the following sequence of nodes:
-M -&gt; I -&gt; S -&gt; O
-So, the shortest path from node M to node O is M -&gt; I -&gt; S -&gt; O.</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node D to node G, we can use Dijkstra's algorithm. Here's the step-by-step process:
-1. Create a set of unvisited nodes and initialize the distance to the starting node (D) to 0 and the distance to all other nodes to infinity.
-2. Select the node with the smallest distance (D) and mark it as visited.
-3. Update the distances to its neighbors (B, I, and M).
-4. Select the next unvisited node with the smallest distance (B) and mark it as visited.
-5. Update the distances to its neighbors (A, C, and E).
-6. Select the next unvisited node with the smallest distance (I) and mark it as visited.
-7. Update the distances to its neighbors (D, G, and J).
-8. Select the next unvisited node with the smallest distance (M) and mark it as visited.
-9. Update the distances to its neighbors (N and O).
-10. Select the next unvisited node with the smallest distance (J) and mark it as visited.
-11. Update the distances to its neighbors (I and K).
-12. Select the next unvisited node with the smallest distance (N) and mark it as visited.
-13. Update the distances to its neighbors (O and P).
-14. Select the next unvisited node with the smallest distance (O) and mark it as visited.
-15. Update the distances to its neighbors (P and Q).
-16. Select the next unvisited node with the smallest distance (P) and mark it as visited.
-17. Update the distances to its neighbors (Q and R).
-18. Select the next unvisited node with the smallest distance (Q) and mark it as visited.
-19. Update the distances to its neighbors (R and T).
-20. Select the next unvisited node with the smallest distance (R) and mark it as visited.
-21. Update the distances to its neighbors (S and T).
-22. Select the next unvisited node with the smallest distance (S) and mark it as visited.
-23. Update the distances to its neighbors (T).
-24. Select the next</t>
-  </si>
-  <si>
-    <t>To find the shortest path from node C to node E, we can use Dijkstra's algorithm. Here's the step-by-step process:
-1. Create a set of unvisited nodes and initialize the distance to the starting node (C) to 0 and the distance to all other nodes to infinity.
-2. Select the node with the smallest distance (C) and mark it as visited.
-3. Update the distances to its neighbors (D, I, and J) by adding the distance to the current node (C) and the weight of the edge connecting them. If the new distance is smaller than the current distance, update the distance.
-4. Repeat steps 2 and 3 until all nodes are visited or the target node (E) is visited.
+F -&gt; E -&gt; I -&gt; J -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T
+So, the shortest path from node F to node T is F -&gt; E -&gt; I -&gt; J -&gt; L -&gt; M -&gt; N -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T.</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node R to node H, we can use Dijkstra's algorithm. Here's the step-by-step process:
+1. Create a set of unvisited nodes and initialize the distance to the starting node (R) to 0 and the distance to all other nodes to infinity.
+2. Select the node with the smallest distance (R) and mark it as visited.
+3. Update the distances of its neighbors (all nodes except H, I, and T).
+4. Repeat steps 2-3 until all nodes are visited or the target node (H) is visited.
 Following these steps, we get the following sequence of nodes:
-C -&gt; D (distance 1)
-C -&gt; I -&gt; M (distance 2)
-C -&gt; J -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; E (distance 5)
-So, the shortest path from node C to node E is C -&gt; I -&gt; M -&gt; O -&gt; P -&gt; Q -&gt; R -&gt; S -&gt; T -&gt; E.</t>
+R -&gt; I -&gt; J -&gt; H
+So, the shortest path from node R to node H is R -&gt; I -&gt; J -&gt; H.</t>
+  </si>
+  <si>
+    <t>To find the shortest path from node B to node R, we can use Dijkstra's algorithm. Here's the step-by-step process:
+1. Create a set of unvisited nodes and initialize the distance to the starting node (B) to 0 and the distance to all other nodes to infinity.
+2. Select the node with the smallest distance (B) and mark it as visited.
+3. Update the distances of its neighbors (C, D, E, and F).
+4. Select the node with the smallest distance among the unvisited nodes (C) and mark it as visited.
+5. Update the distances of its neighbors (D, E, and G).
+6. Select the node with the smallest distance among the unvisited nodes (D) and mark it as visited.
+7. Update the distances of its neighbors (E, F, G, H, I, and J).
+8. Select the node with the smallest distance among the unvisited nodes (E) and mark it as visited.
+9. Update the distances of its neighbors (F, G, H, I, and J).
+10. Select the node with the smallest distance among the unvisited nodes (F) and mark it as visited.
+11. Update the distances of its neighbors (G, H, I, J, K, L, M, N, O, P, Q, R, and S).
+12. Select the node with the smallest distance among the unvisited nodes (G) and mark it as visited.
+13. Update the distances of its neighbors (H, I, J, K, L, M, N, O, P, Q, R, and S).
+14. Select the node with the smallest distance among the unvisited nodes (I) and mark it as visited.
+15. Update the distances of its neighbors (J, K, L, M, N, O, P, Q, R, and S).
+16. Select the node with the smallest distance among the unvisited nodes (J) and mark it as visited.
+17. Update the distances of its neighbors (K, L, M, N, O, P, Q, R, and S).
+18. Select the node with the smallest distance among the unvisited nodes (K)</t>
   </si>
 </sst>
 </file>
@@ -941,7 +897,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -952,10 +908,10 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -969,7 +925,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -980,10 +936,10 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -997,7 +953,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1008,10 +964,10 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
         <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1025,7 +981,7 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1039,7 +995,7 @@
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1050,10 +1006,10 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
         <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1064,10 +1020,10 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
         <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1099,142 +1055,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" t="s">
-        <v>12</v>
-      </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -1266,142 +1222,142 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
